--- a/tests/data/sampledata.xlsx
+++ b/tests/data/sampledata.xlsx
@@ -752,12 +752,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>188</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>埼玉県</t>
+          <t>静岡県</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
